--- a/configs/level.xlsx
+++ b/configs/level.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DreamCC\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCD261A-4021-4D7C-924E-CEEDCF420888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55D5F7B-DA71-47D1-ADE9-C1ECF2B0942B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -703,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L237"/>
+  <dimension ref="A1:L238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F190" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -831,38 +831,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2">
-        <v>600</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
@@ -871,7 +839,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -888,6 +856,9 @@
       <c r="I5" s="2">
         <v>0</v>
       </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
       <c r="L5" s="2" t="s">
         <v>16</v>
       </c>
@@ -900,7 +871,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -929,13 +900,13 @@
         <v>45</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
         <v>600</v>
@@ -944,10 +915,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>16</v>
@@ -961,7 +929,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -993,7 +961,7 @@
         <v>45</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -1004,9 +972,6 @@
       <c r="F9" s="2">
         <v>600</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="H9" s="2">
         <v>1</v>
       </c>
@@ -1028,10 +993,10 @@
         <v>45</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1063,7 +1028,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
@@ -1098,7 +1063,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2">
         <v>2</v>
@@ -1125,27 +1090,39 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>3</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>17</v>
+    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>600</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1153,7 +1130,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -1163,6 +1140,9 @@
       </c>
       <c r="I14" s="3">
         <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>17</v>
@@ -1173,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -1193,16 +1173,16 @@
         <v>2</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
         <v>2</v>
       </c>
       <c r="I16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>17</v>
@@ -1213,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -1233,7 +1213,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -1253,13 +1233,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="G19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
         <v>2</v>
@@ -1276,7 +1253,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3">
         <v>2</v>
@@ -1299,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3">
         <v>2</v>
@@ -1317,27 +1294,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>4</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>18</v>
+    <row r="22" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1345,7 +1322,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -1355,6 +1332,9 @@
       </c>
       <c r="I23" s="2">
         <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>4</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>18</v>
@@ -1365,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -1385,16 +1365,16 @@
         <v>3</v>
       </c>
       <c r="C25" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2">
         <v>2</v>
       </c>
       <c r="I25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>18</v>
@@ -1405,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -1425,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -1445,13 +1425,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" s="2">
-        <v>2</v>
-      </c>
-      <c r="G28" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H28" s="2">
         <v>2</v>
@@ -1468,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2">
         <v>2</v>
@@ -1491,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2">
         <v>2</v>
@@ -1509,27 +1486,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>4</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>2</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3">
-        <v>5</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>19</v>
+    <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1537,7 +1514,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
@@ -1547,6 +1524,9 @@
       </c>
       <c r="I32" s="3">
         <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>5</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>19</v>
@@ -1557,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -1577,16 +1557,16 @@
         <v>4</v>
       </c>
       <c r="C34" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="3">
         <v>2</v>
       </c>
       <c r="I34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>19</v>
@@ -1597,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -1617,7 +1597,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -1637,13 +1617,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37" s="3">
-        <v>2</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="H37" s="3">
         <v>2</v>
@@ -1660,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="3">
         <v>2</v>
@@ -1683,7 +1660,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3">
         <v>2</v>
@@ -1701,27 +1678,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>5</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
-        <v>3</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2">
-        <v>6</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>20</v>
+    <row r="40" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1729,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
@@ -1739,6 +1716,9 @@
       </c>
       <c r="I41" s="2">
         <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>6</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>20</v>
@@ -1749,7 +1729,7 @@
         <v>5</v>
       </c>
       <c r="C42" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
@@ -1769,16 +1749,16 @@
         <v>5</v>
       </c>
       <c r="C43" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2">
         <v>3</v>
       </c>
       <c r="I43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>20</v>
@@ -1789,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -1809,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="C45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
@@ -1829,13 +1809,10 @@
         <v>5</v>
       </c>
       <c r="C46" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D46" s="2">
-        <v>2</v>
-      </c>
-      <c r="G46" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" s="2">
         <v>3</v>
@@ -1852,7 +1829,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
@@ -1875,7 +1852,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" s="2">
         <v>2</v>
@@ -1893,27 +1870,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>6</v>
-      </c>
-      <c r="C49" s="3">
-        <v>0</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
+    <row r="49" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>5</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+      <c r="G49" s="2">
+        <v>2</v>
+      </c>
+      <c r="H49" s="2">
         <v>3</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>7</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>21</v>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1921,7 +1898,7 @@
         <v>6</v>
       </c>
       <c r="C50" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="3">
         <v>0</v>
@@ -1931,6 +1908,9 @@
       </c>
       <c r="I50" s="3">
         <v>0</v>
+      </c>
+      <c r="J50" s="3">
+        <v>7</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>21</v>
@@ -1941,7 +1921,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="3">
         <v>0</v>
@@ -1961,16 +1941,16 @@
         <v>6</v>
       </c>
       <c r="C52" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>3</v>
       </c>
       <c r="I52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>21</v>
@@ -1981,7 +1961,7 @@
         <v>6</v>
       </c>
       <c r="C53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="3">
         <v>1</v>
@@ -2001,7 +1981,7 @@
         <v>6</v>
       </c>
       <c r="C54" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
@@ -2021,13 +2001,10 @@
         <v>6</v>
       </c>
       <c r="C55" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D55" s="3">
-        <v>2</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="H55" s="3">
         <v>3</v>
@@ -2044,7 +2021,7 @@
         <v>6</v>
       </c>
       <c r="C56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="3">
         <v>2</v>
@@ -2067,7 +2044,7 @@
         <v>6</v>
       </c>
       <c r="C57" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" s="3">
         <v>2</v>
@@ -2085,27 +2062,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>7</v>
-      </c>
-      <c r="C58" s="2">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>0</v>
-      </c>
-      <c r="H58" s="2">
+    <row r="58" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>6</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" s="3">
         <v>3</v>
       </c>
-      <c r="I58" s="2">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2">
-        <v>8</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>22</v>
+      <c r="I58" s="3">
+        <v>1</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2113,7 +2090,7 @@
         <v>7</v>
       </c>
       <c r="C59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" s="2">
         <v>0</v>
@@ -2123,6 +2100,9 @@
       </c>
       <c r="I59" s="2">
         <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>8</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>22</v>
@@ -2133,7 +2113,7 @@
         <v>7</v>
       </c>
       <c r="C60" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" s="2">
         <v>0</v>
@@ -2153,16 +2133,16 @@
         <v>7</v>
       </c>
       <c r="C61" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="2">
         <v>3</v>
       </c>
       <c r="I61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>22</v>
@@ -2173,7 +2153,7 @@
         <v>7</v>
       </c>
       <c r="C62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="2">
         <v>1</v>
@@ -2193,7 +2173,7 @@
         <v>7</v>
       </c>
       <c r="C63" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2">
         <v>1</v>
@@ -2213,13 +2193,10 @@
         <v>7</v>
       </c>
       <c r="C64" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D64" s="2">
-        <v>2</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="H64" s="2">
         <v>3</v>
@@ -2236,7 +2213,7 @@
         <v>7</v>
       </c>
       <c r="C65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="2">
         <v>2</v>
@@ -2259,7 +2236,7 @@
         <v>7</v>
       </c>
       <c r="C66" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" s="2">
         <v>2</v>
@@ -2277,27 +2254,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>8</v>
-      </c>
-      <c r="C67" s="3">
-        <v>0</v>
-      </c>
-      <c r="D67" s="3">
-        <v>0</v>
-      </c>
-      <c r="H67" s="3">
-        <v>4</v>
-      </c>
-      <c r="I67" s="3">
-        <v>0</v>
-      </c>
-      <c r="J67" s="3">
-        <v>9</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>23</v>
+    <row r="67" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>7</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H67" s="2">
+        <v>3</v>
+      </c>
+      <c r="I67" s="2">
+        <v>1</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2305,7 +2282,7 @@
         <v>8</v>
       </c>
       <c r="C68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" s="3">
         <v>0</v>
@@ -2315,6 +2292,9 @@
       </c>
       <c r="I68" s="3">
         <v>0</v>
+      </c>
+      <c r="J68" s="3">
+        <v>9</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>23</v>
@@ -2325,7 +2305,7 @@
         <v>8</v>
       </c>
       <c r="C69" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69" s="3">
         <v>0</v>
@@ -2345,16 +2325,16 @@
         <v>8</v>
       </c>
       <c r="C70" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>4</v>
       </c>
       <c r="I70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>23</v>
@@ -2365,7 +2345,7 @@
         <v>8</v>
       </c>
       <c r="C71" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
@@ -2385,7 +2365,7 @@
         <v>8</v>
       </c>
       <c r="C72" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" s="3">
         <v>1</v>
@@ -2405,13 +2385,10 @@
         <v>8</v>
       </c>
       <c r="C73" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D73" s="3">
-        <v>2</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="H73" s="3">
         <v>4</v>
@@ -2428,7 +2405,7 @@
         <v>8</v>
       </c>
       <c r="C74" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" s="3">
         <v>2</v>
@@ -2451,7 +2428,7 @@
         <v>8</v>
       </c>
       <c r="C75" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" s="3">
         <v>2</v>
@@ -2469,27 +2446,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>9</v>
-      </c>
-      <c r="C76" s="2">
-        <v>0</v>
-      </c>
-      <c r="D76" s="2">
-        <v>0</v>
-      </c>
-      <c r="H76" s="2">
+    <row r="76" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>8</v>
+      </c>
+      <c r="C76" s="3">
+        <v>2</v>
+      </c>
+      <c r="D76" s="3">
+        <v>2</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H76" s="3">
         <v>4</v>
       </c>
-      <c r="I76" s="2">
-        <v>0</v>
-      </c>
-      <c r="J76" s="2">
-        <v>10</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>24</v>
+      <c r="I76" s="3">
+        <v>1</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2497,7 +2474,7 @@
         <v>9</v>
       </c>
       <c r="C77" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" s="2">
         <v>0</v>
@@ -2507,6 +2484,9 @@
       </c>
       <c r="I77" s="2">
         <v>0</v>
+      </c>
+      <c r="J77" s="2">
+        <v>10</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>24</v>
@@ -2517,7 +2497,7 @@
         <v>9</v>
       </c>
       <c r="C78" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78" s="2">
         <v>0</v>
@@ -2537,16 +2517,16 @@
         <v>9</v>
       </c>
       <c r="C79" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D79" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="2">
         <v>4</v>
       </c>
       <c r="I79" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>24</v>
@@ -2557,7 +2537,7 @@
         <v>9</v>
       </c>
       <c r="C80" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" s="2">
         <v>1</v>
@@ -2577,7 +2557,7 @@
         <v>9</v>
       </c>
       <c r="C81" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81" s="2">
         <v>1</v>
@@ -2597,13 +2577,10 @@
         <v>9</v>
       </c>
       <c r="C82" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D82" s="2">
-        <v>2</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="H82" s="2">
         <v>4</v>
@@ -2620,7 +2597,7 @@
         <v>9</v>
       </c>
       <c r="C83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" s="2">
         <v>2</v>
@@ -2643,7 +2620,7 @@
         <v>9</v>
       </c>
       <c r="C84" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" s="2">
         <v>2</v>
@@ -2661,27 +2638,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>10</v>
-      </c>
-      <c r="C85" s="3">
-        <v>0</v>
-      </c>
-      <c r="D85" s="3">
-        <v>0</v>
-      </c>
-      <c r="H85" s="3">
+    <row r="85" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>9</v>
+      </c>
+      <c r="C85" s="2">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2">
+        <v>2</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H85" s="2">
         <v>4</v>
       </c>
-      <c r="I85" s="3">
-        <v>0</v>
-      </c>
-      <c r="J85" s="3">
-        <v>11</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>25</v>
+      <c r="I85" s="2">
+        <v>1</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2689,7 +2666,7 @@
         <v>10</v>
       </c>
       <c r="C86" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" s="3">
         <v>0</v>
@@ -2699,6 +2676,9 @@
       </c>
       <c r="I86" s="3">
         <v>0</v>
+      </c>
+      <c r="J86" s="3">
+        <v>11</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>25</v>
@@ -2709,7 +2689,7 @@
         <v>10</v>
       </c>
       <c r="C87" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" s="3">
         <v>0</v>
@@ -2729,10 +2709,10 @@
         <v>10</v>
       </c>
       <c r="C88" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D88" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" s="3">
         <v>4</v>
@@ -2749,7 +2729,7 @@
         <v>10</v>
       </c>
       <c r="C89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" s="3">
         <v>1</v>
@@ -2769,7 +2749,7 @@
         <v>10</v>
       </c>
       <c r="C90" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90" s="3">
         <v>1</v>
@@ -2789,13 +2769,10 @@
         <v>10</v>
       </c>
       <c r="C91" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D91" s="3">
-        <v>2</v>
-      </c>
-      <c r="G91" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H91" s="3">
         <v>4</v>
@@ -2812,7 +2789,7 @@
         <v>10</v>
       </c>
       <c r="C92" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" s="3">
         <v>2</v>
@@ -2835,7 +2812,7 @@
         <v>10</v>
       </c>
       <c r="C93" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93" s="3">
         <v>2</v>
@@ -2853,27 +2830,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>11</v>
-      </c>
-      <c r="C94" s="2">
-        <v>0</v>
-      </c>
-      <c r="D94" s="2">
-        <v>0</v>
-      </c>
-      <c r="H94" s="2">
-        <v>5</v>
-      </c>
-      <c r="I94" s="2">
-        <v>0</v>
-      </c>
-      <c r="J94" s="2">
-        <v>12</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>26</v>
+    <row r="94" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>10</v>
+      </c>
+      <c r="C94" s="3">
+        <v>2</v>
+      </c>
+      <c r="D94" s="3">
+        <v>2</v>
+      </c>
+      <c r="G94" s="3">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2881,7 +2858,7 @@
         <v>11</v>
       </c>
       <c r="C95" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" s="2">
         <v>0</v>
@@ -2891,6 +2868,9 @@
       </c>
       <c r="I95" s="2">
         <v>0</v>
+      </c>
+      <c r="J95" s="2">
+        <v>12</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>26</v>
@@ -2901,7 +2881,7 @@
         <v>11</v>
       </c>
       <c r="C96" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" s="2">
         <v>0</v>
@@ -2921,10 +2901,10 @@
         <v>11</v>
       </c>
       <c r="C97" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D97" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" s="2">
         <v>5</v>
@@ -2941,7 +2921,7 @@
         <v>11</v>
       </c>
       <c r="C98" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" s="2">
         <v>1</v>
@@ -2961,7 +2941,7 @@
         <v>11</v>
       </c>
       <c r="C99" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99" s="2">
         <v>1</v>
@@ -2981,13 +2961,10 @@
         <v>11</v>
       </c>
       <c r="C100" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D100" s="2">
-        <v>2</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="H100" s="2">
         <v>5</v>
@@ -3004,7 +2981,7 @@
         <v>11</v>
       </c>
       <c r="C101" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" s="2">
         <v>2</v>
@@ -3027,7 +3004,7 @@
         <v>11</v>
       </c>
       <c r="C102" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102" s="2">
         <v>2</v>
@@ -3045,27 +3022,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
-        <v>12</v>
-      </c>
-      <c r="C103" s="3">
-        <v>0</v>
-      </c>
-      <c r="D103" s="3">
-        <v>0</v>
-      </c>
-      <c r="H103" s="3">
+    <row r="103" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>11</v>
+      </c>
+      <c r="C103" s="2">
+        <v>2</v>
+      </c>
+      <c r="D103" s="2">
+        <v>2</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H103" s="2">
         <v>5</v>
       </c>
-      <c r="I103" s="3">
-        <v>0</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L103" s="3" t="s">
-        <v>27</v>
+      <c r="I103" s="2">
+        <v>0</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3073,7 +3050,7 @@
         <v>12</v>
       </c>
       <c r="C104" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104" s="3">
         <v>0</v>
@@ -3083,6 +3060,9 @@
       </c>
       <c r="I104" s="3">
         <v>0</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="L104" s="3" t="s">
         <v>27</v>
@@ -3093,7 +3073,7 @@
         <v>12</v>
       </c>
       <c r="C105" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105" s="3">
         <v>0</v>
@@ -3113,10 +3093,10 @@
         <v>12</v>
       </c>
       <c r="C106" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D106" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" s="3">
         <v>5</v>
@@ -3133,7 +3113,7 @@
         <v>12</v>
       </c>
       <c r="C107" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107" s="3">
         <v>1</v>
@@ -3153,7 +3133,7 @@
         <v>12</v>
       </c>
       <c r="C108" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108" s="3">
         <v>1</v>
@@ -3173,13 +3153,10 @@
         <v>12</v>
       </c>
       <c r="C109" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D109" s="3">
-        <v>2</v>
-      </c>
-      <c r="G109" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H109" s="3">
         <v>5</v>
@@ -3196,7 +3173,7 @@
         <v>12</v>
       </c>
       <c r="C110" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110" s="3">
         <v>2</v>
@@ -3219,7 +3196,7 @@
         <v>12</v>
       </c>
       <c r="C111" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111" s="3">
         <v>2</v>
@@ -3237,24 +3214,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>13</v>
-      </c>
-      <c r="C112" s="2">
-        <v>0</v>
-      </c>
-      <c r="D112" s="2">
-        <v>0</v>
-      </c>
-      <c r="H112" s="2">
-        <v>1</v>
-      </c>
-      <c r="I112" s="2">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="s">
-        <v>28</v>
+    <row r="112" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>12</v>
+      </c>
+      <c r="C112" s="3">
+        <v>2</v>
+      </c>
+      <c r="D112" s="3">
+        <v>2</v>
+      </c>
+      <c r="G112" s="3">
+        <v>4</v>
+      </c>
+      <c r="H112" s="3">
+        <v>5</v>
+      </c>
+      <c r="I112" s="3">
+        <v>0</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3262,7 +3242,7 @@
         <v>13</v>
       </c>
       <c r="C113" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" s="2">
         <v>0</v>
@@ -3282,7 +3262,7 @@
         <v>13</v>
       </c>
       <c r="C114" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114" s="2">
         <v>0</v>
@@ -3302,16 +3282,16 @@
         <v>13</v>
       </c>
       <c r="C115" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D115" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" s="2">
         <v>1</v>
       </c>
       <c r="I115" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115" s="2" t="s">
         <v>28</v>
@@ -3322,7 +3302,7 @@
         <v>13</v>
       </c>
       <c r="C116" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116" s="2">
         <v>1</v>
@@ -3342,7 +3322,7 @@
         <v>13</v>
       </c>
       <c r="C117" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117" s="2">
         <v>1</v>
@@ -3362,10 +3342,10 @@
         <v>13</v>
       </c>
       <c r="C118" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D118" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118" s="2">
         <v>1</v>
@@ -3382,7 +3362,7 @@
         <v>13</v>
       </c>
       <c r="C119" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119" s="2">
         <v>2</v>
@@ -3402,7 +3382,7 @@
         <v>13</v>
       </c>
       <c r="C120" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120" s="2">
         <v>2</v>
@@ -3417,24 +3397,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
-        <v>14</v>
-      </c>
-      <c r="C121" s="3">
-        <v>0</v>
-      </c>
-      <c r="D121" s="3">
-        <v>0</v>
-      </c>
-      <c r="H121" s="3">
-        <v>1</v>
-      </c>
-      <c r="I121" s="3">
-        <v>0</v>
-      </c>
-      <c r="L121" s="3" t="s">
-        <v>29</v>
+    <row r="121" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>13</v>
+      </c>
+      <c r="C121" s="2">
+        <v>2</v>
+      </c>
+      <c r="D121" s="2">
+        <v>2</v>
+      </c>
+      <c r="H121" s="2">
+        <v>1</v>
+      </c>
+      <c r="I121" s="2">
+        <v>1</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="122" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3442,7 +3422,7 @@
         <v>14</v>
       </c>
       <c r="C122" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" s="3">
         <v>0</v>
@@ -3462,7 +3442,7 @@
         <v>14</v>
       </c>
       <c r="C123" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123" s="3">
         <v>0</v>
@@ -3482,16 +3462,16 @@
         <v>14</v>
       </c>
       <c r="C124" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D124" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" s="3">
         <v>1</v>
       </c>
       <c r="I124" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124" s="3" t="s">
         <v>29</v>
@@ -3502,7 +3482,7 @@
         <v>14</v>
       </c>
       <c r="C125" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125" s="3">
         <v>1</v>
@@ -3522,7 +3502,7 @@
         <v>14</v>
       </c>
       <c r="C126" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126" s="3">
         <v>1</v>
@@ -3542,10 +3522,10 @@
         <v>14</v>
       </c>
       <c r="C127" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D127" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H127" s="3">
         <v>1</v>
@@ -3562,7 +3542,7 @@
         <v>14</v>
       </c>
       <c r="C128" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128" s="3">
         <v>2</v>
@@ -3582,7 +3562,7 @@
         <v>14</v>
       </c>
       <c r="C129" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129" s="3">
         <v>2</v>
@@ -3597,24 +3577,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <v>15</v>
-      </c>
-      <c r="C130" s="2">
-        <v>0</v>
-      </c>
-      <c r="D130" s="2">
-        <v>0</v>
-      </c>
-      <c r="H130" s="2">
-        <v>1</v>
-      </c>
-      <c r="I130" s="2">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="s">
-        <v>30</v>
+    <row r="130" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>14</v>
+      </c>
+      <c r="C130" s="3">
+        <v>2</v>
+      </c>
+      <c r="D130" s="3">
+        <v>2</v>
+      </c>
+      <c r="H130" s="3">
+        <v>1</v>
+      </c>
+      <c r="I130" s="3">
+        <v>1</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3622,7 +3602,7 @@
         <v>15</v>
       </c>
       <c r="C131" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131" s="2">
         <v>0</v>
@@ -3642,7 +3622,7 @@
         <v>15</v>
       </c>
       <c r="C132" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132" s="2">
         <v>0</v>
@@ -3662,16 +3642,16 @@
         <v>15</v>
       </c>
       <c r="C133" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D133" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133" s="2">
         <v>1</v>
       </c>
       <c r="I133" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>30</v>
@@ -3682,7 +3662,7 @@
         <v>15</v>
       </c>
       <c r="C134" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134" s="2">
         <v>1</v>
@@ -3702,7 +3682,7 @@
         <v>15</v>
       </c>
       <c r="C135" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135" s="2">
         <v>1</v>
@@ -3722,10 +3702,10 @@
         <v>15</v>
       </c>
       <c r="C136" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D136" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136" s="2">
         <v>1</v>
@@ -3742,7 +3722,7 @@
         <v>15</v>
       </c>
       <c r="C137" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137" s="2">
         <v>2</v>
@@ -3762,7 +3742,7 @@
         <v>15</v>
       </c>
       <c r="C138" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138" s="2">
         <v>2</v>
@@ -3777,27 +3757,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
-        <v>16</v>
-      </c>
-      <c r="C139" s="3">
-        <v>0</v>
-      </c>
-      <c r="D139" s="3">
-        <v>0</v>
-      </c>
-      <c r="H139" s="3">
-        <v>1</v>
-      </c>
-      <c r="I139" s="3">
-        <v>0</v>
-      </c>
-      <c r="J139" s="3">
-        <v>17</v>
-      </c>
-      <c r="L139" s="3" t="s">
-        <v>31</v>
+    <row r="139" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>15</v>
+      </c>
+      <c r="C139" s="2">
+        <v>2</v>
+      </c>
+      <c r="D139" s="2">
+        <v>2</v>
+      </c>
+      <c r="H139" s="2">
+        <v>1</v>
+      </c>
+      <c r="I139" s="2">
+        <v>1</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="140" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3805,7 +3782,7 @@
         <v>16</v>
       </c>
       <c r="C140" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D140" s="3">
         <v>0</v>
@@ -3815,6 +3792,9 @@
       </c>
       <c r="I140" s="3">
         <v>0</v>
+      </c>
+      <c r="J140" s="3">
+        <v>17</v>
       </c>
       <c r="L140" s="3" t="s">
         <v>31</v>
@@ -3825,7 +3805,7 @@
         <v>16</v>
       </c>
       <c r="C141" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D141" s="3">
         <v>0</v>
@@ -3845,16 +3825,16 @@
         <v>16</v>
       </c>
       <c r="C142" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D142" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" s="3">
         <v>1</v>
       </c>
       <c r="I142" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L142" s="3" t="s">
         <v>31</v>
@@ -3865,7 +3845,7 @@
         <v>16</v>
       </c>
       <c r="C143" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143" s="3">
         <v>1</v>
@@ -3885,7 +3865,7 @@
         <v>16</v>
       </c>
       <c r="C144" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144" s="3">
         <v>1</v>
@@ -3905,10 +3885,10 @@
         <v>16</v>
       </c>
       <c r="C145" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D145" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H145" s="3">
         <v>1</v>
@@ -3925,7 +3905,7 @@
         <v>16</v>
       </c>
       <c r="C146" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D146" s="3">
         <v>2</v>
@@ -3945,7 +3925,7 @@
         <v>16</v>
       </c>
       <c r="C147" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147" s="3">
         <v>2</v>
@@ -3960,24 +3940,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
-        <v>17</v>
-      </c>
-      <c r="C148" s="2">
-        <v>0</v>
-      </c>
-      <c r="D148" s="2">
-        <v>0</v>
-      </c>
-      <c r="H148" s="2">
-        <v>1</v>
-      </c>
-      <c r="I148" s="2">
-        <v>0</v>
-      </c>
-      <c r="L148" s="2" t="s">
-        <v>32</v>
+    <row r="148" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>16</v>
+      </c>
+      <c r="C148" s="3">
+        <v>2</v>
+      </c>
+      <c r="D148" s="3">
+        <v>2</v>
+      </c>
+      <c r="H148" s="3">
+        <v>1</v>
+      </c>
+      <c r="I148" s="3">
+        <v>1</v>
+      </c>
+      <c r="L148" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="149" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3985,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="C149" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D149" s="2">
         <v>0</v>
@@ -4005,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="C150" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150" s="2">
         <v>0</v>
@@ -4025,16 +4005,16 @@
         <v>17</v>
       </c>
       <c r="C151" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D151" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151" s="2">
         <v>1</v>
       </c>
       <c r="I151" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L151" s="2" t="s">
         <v>32</v>
@@ -4045,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="C152" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D152" s="2">
         <v>1</v>
@@ -4065,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="C153" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153" s="2">
         <v>1</v>
@@ -4085,10 +4065,10 @@
         <v>17</v>
       </c>
       <c r="C154" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D154" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H154" s="2">
         <v>1</v>
@@ -4105,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="C155" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155" s="2">
         <v>2</v>
@@ -4125,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="C156" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156" s="2">
         <v>2</v>
@@ -4140,27 +4120,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="157" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
-        <v>18</v>
-      </c>
-      <c r="C157" s="3">
-        <v>0</v>
-      </c>
-      <c r="D157" s="3">
-        <v>0</v>
-      </c>
-      <c r="H157" s="3">
-        <v>1</v>
-      </c>
-      <c r="I157" s="3">
-        <v>0</v>
-      </c>
-      <c r="J157" s="3">
-        <v>19</v>
-      </c>
-      <c r="L157" s="3" t="s">
-        <v>33</v>
+    <row r="157" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>17</v>
+      </c>
+      <c r="C157" s="2">
+        <v>2</v>
+      </c>
+      <c r="D157" s="2">
+        <v>2</v>
+      </c>
+      <c r="H157" s="2">
+        <v>1</v>
+      </c>
+      <c r="I157" s="2">
+        <v>1</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="158" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4168,7 +4145,7 @@
         <v>18</v>
       </c>
       <c r="C158" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D158" s="3">
         <v>0</v>
@@ -4178,6 +4155,9 @@
       </c>
       <c r="I158" s="3">
         <v>0</v>
+      </c>
+      <c r="J158" s="3">
+        <v>19</v>
       </c>
       <c r="L158" s="3" t="s">
         <v>33</v>
@@ -4188,7 +4168,7 @@
         <v>18</v>
       </c>
       <c r="C159" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159" s="3">
         <v>0</v>
@@ -4208,16 +4188,16 @@
         <v>18</v>
       </c>
       <c r="C160" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D160" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" s="3">
         <v>1</v>
       </c>
       <c r="I160" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L160" s="3" t="s">
         <v>33</v>
@@ -4228,7 +4208,7 @@
         <v>18</v>
       </c>
       <c r="C161" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161" s="3">
         <v>1</v>
@@ -4248,7 +4228,7 @@
         <v>18</v>
       </c>
       <c r="C162" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162" s="3">
         <v>1</v>
@@ -4268,10 +4248,10 @@
         <v>18</v>
       </c>
       <c r="C163" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D163" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163" s="3">
         <v>1</v>
@@ -4288,7 +4268,7 @@
         <v>18</v>
       </c>
       <c r="C164" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164" s="3">
         <v>2</v>
@@ -4308,7 +4288,7 @@
         <v>18</v>
       </c>
       <c r="C165" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165" s="3">
         <v>2</v>
@@ -4323,24 +4303,24 @@
         <v>33</v>
       </c>
     </row>
-    <row r="166" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
-        <v>19</v>
-      </c>
-      <c r="C166" s="2">
-        <v>0</v>
-      </c>
-      <c r="D166" s="2">
-        <v>0</v>
-      </c>
-      <c r="H166" s="2">
-        <v>1</v>
-      </c>
-      <c r="I166" s="2">
-        <v>0</v>
-      </c>
-      <c r="L166" s="2" t="s">
-        <v>34</v>
+    <row r="166" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>18</v>
+      </c>
+      <c r="C166" s="3">
+        <v>2</v>
+      </c>
+      <c r="D166" s="3">
+        <v>2</v>
+      </c>
+      <c r="H166" s="3">
+        <v>1</v>
+      </c>
+      <c r="I166" s="3">
+        <v>1</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="167" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4348,7 +4328,7 @@
         <v>19</v>
       </c>
       <c r="C167" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167" s="2">
         <v>0</v>
@@ -4368,7 +4348,7 @@
         <v>19</v>
       </c>
       <c r="C168" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168" s="2">
         <v>0</v>
@@ -4388,16 +4368,16 @@
         <v>19</v>
       </c>
       <c r="C169" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D169" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169" s="2">
         <v>1</v>
       </c>
       <c r="I169" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L169" s="2" t="s">
         <v>34</v>
@@ -4408,7 +4388,7 @@
         <v>19</v>
       </c>
       <c r="C170" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D170" s="2">
         <v>1</v>
@@ -4428,7 +4408,7 @@
         <v>19</v>
       </c>
       <c r="C171" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171" s="2">
         <v>1</v>
@@ -4448,10 +4428,10 @@
         <v>19</v>
       </c>
       <c r="C172" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D172" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172" s="2">
         <v>1</v>
@@ -4468,7 +4448,7 @@
         <v>19</v>
       </c>
       <c r="C173" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D173" s="2">
         <v>2</v>
@@ -4488,7 +4468,7 @@
         <v>19</v>
       </c>
       <c r="C174" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174" s="2">
         <v>2</v>
@@ -4503,27 +4483,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="175" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="3">
-        <v>20</v>
-      </c>
-      <c r="C175" s="3">
-        <v>0</v>
-      </c>
-      <c r="D175" s="3">
-        <v>0</v>
-      </c>
-      <c r="H175" s="3">
-        <v>1</v>
-      </c>
-      <c r="I175" s="3">
-        <v>0</v>
-      </c>
-      <c r="J175" s="3">
-        <v>21</v>
-      </c>
-      <c r="L175" s="3" t="s">
-        <v>35</v>
+    <row r="175" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>19</v>
+      </c>
+      <c r="C175" s="2">
+        <v>2</v>
+      </c>
+      <c r="D175" s="2">
+        <v>2</v>
+      </c>
+      <c r="H175" s="2">
+        <v>1</v>
+      </c>
+      <c r="I175" s="2">
+        <v>1</v>
+      </c>
+      <c r="L175" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="176" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4531,7 +4508,7 @@
         <v>20</v>
       </c>
       <c r="C176" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176" s="3">
         <v>0</v>
@@ -4541,6 +4518,9 @@
       </c>
       <c r="I176" s="3">
         <v>0</v>
+      </c>
+      <c r="J176" s="3">
+        <v>21</v>
       </c>
       <c r="L176" s="3" t="s">
         <v>35</v>
@@ -4551,7 +4531,7 @@
         <v>20</v>
       </c>
       <c r="C177" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177" s="3">
         <v>0</v>
@@ -4571,16 +4551,16 @@
         <v>20</v>
       </c>
       <c r="C178" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D178" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178" s="3">
         <v>1</v>
       </c>
       <c r="I178" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L178" s="3" t="s">
         <v>35</v>
@@ -4591,7 +4571,7 @@
         <v>20</v>
       </c>
       <c r="C179" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179" s="3">
         <v>1</v>
@@ -4611,7 +4591,7 @@
         <v>20</v>
       </c>
       <c r="C180" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180" s="3">
         <v>1</v>
@@ -4631,10 +4611,10 @@
         <v>20</v>
       </c>
       <c r="C181" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D181" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H181" s="3">
         <v>1</v>
@@ -4651,7 +4631,7 @@
         <v>20</v>
       </c>
       <c r="C182" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182" s="3">
         <v>2</v>
@@ -4671,7 +4651,7 @@
         <v>20</v>
       </c>
       <c r="C183" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183" s="3">
         <v>2</v>
@@ -4686,24 +4666,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="184" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
-        <v>21</v>
-      </c>
-      <c r="C184" s="2">
-        <v>0</v>
-      </c>
-      <c r="D184" s="2">
-        <v>0</v>
-      </c>
-      <c r="H184" s="2">
-        <v>1</v>
-      </c>
-      <c r="I184" s="2">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="s">
-        <v>36</v>
+    <row r="184" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>20</v>
+      </c>
+      <c r="C184" s="3">
+        <v>2</v>
+      </c>
+      <c r="D184" s="3">
+        <v>2</v>
+      </c>
+      <c r="H184" s="3">
+        <v>1</v>
+      </c>
+      <c r="I184" s="3">
+        <v>1</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="185" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4711,7 +4691,7 @@
         <v>21</v>
       </c>
       <c r="C185" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D185" s="2">
         <v>0</v>
@@ -4731,7 +4711,7 @@
         <v>21</v>
       </c>
       <c r="C186" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186" s="2">
         <v>0</v>
@@ -4751,16 +4731,16 @@
         <v>21</v>
       </c>
       <c r="C187" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D187" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187" s="2">
         <v>1</v>
       </c>
       <c r="I187" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L187" s="2" t="s">
         <v>36</v>
@@ -4771,7 +4751,7 @@
         <v>21</v>
       </c>
       <c r="C188" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188" s="2">
         <v>1</v>
@@ -4791,7 +4771,7 @@
         <v>21</v>
       </c>
       <c r="C189" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189" s="2">
         <v>1</v>
@@ -4811,10 +4791,10 @@
         <v>21</v>
       </c>
       <c r="C190" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D190" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H190" s="2">
         <v>1</v>
@@ -4831,7 +4811,7 @@
         <v>21</v>
       </c>
       <c r="C191" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191" s="2">
         <v>2</v>
@@ -4851,7 +4831,7 @@
         <v>21</v>
       </c>
       <c r="C192" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192" s="2">
         <v>2</v>
@@ -4866,24 +4846,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="3">
-        <v>22</v>
-      </c>
-      <c r="C193" s="3">
-        <v>0</v>
-      </c>
-      <c r="D193" s="3">
-        <v>0</v>
-      </c>
-      <c r="H193" s="3">
-        <v>1</v>
-      </c>
-      <c r="I193" s="3">
-        <v>0</v>
-      </c>
-      <c r="L193" s="3" t="s">
-        <v>37</v>
+    <row r="193" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>21</v>
+      </c>
+      <c r="C193" s="2">
+        <v>2</v>
+      </c>
+      <c r="D193" s="2">
+        <v>2</v>
+      </c>
+      <c r="H193" s="2">
+        <v>1</v>
+      </c>
+      <c r="I193" s="2">
+        <v>1</v>
+      </c>
+      <c r="L193" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="194" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4891,7 +4871,7 @@
         <v>22</v>
       </c>
       <c r="C194" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D194" s="3">
         <v>0</v>
@@ -4911,7 +4891,7 @@
         <v>22</v>
       </c>
       <c r="C195" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195" s="3">
         <v>0</v>
@@ -4931,16 +4911,16 @@
         <v>22</v>
       </c>
       <c r="C196" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D196" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196" s="3">
         <v>1</v>
       </c>
       <c r="I196" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L196" s="3" t="s">
         <v>37</v>
@@ -4951,7 +4931,7 @@
         <v>22</v>
       </c>
       <c r="C197" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D197" s="3">
         <v>1</v>
@@ -4971,7 +4951,7 @@
         <v>22</v>
       </c>
       <c r="C198" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198" s="3">
         <v>1</v>
@@ -4991,10 +4971,10 @@
         <v>22</v>
       </c>
       <c r="C199" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D199" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H199" s="3">
         <v>1</v>
@@ -5011,7 +4991,7 @@
         <v>22</v>
       </c>
       <c r="C200" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D200" s="3">
         <v>2</v>
@@ -5031,7 +5011,7 @@
         <v>22</v>
       </c>
       <c r="C201" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201" s="3">
         <v>2</v>
@@ -5046,27 +5026,24 @@
         <v>37</v>
       </c>
     </row>
-    <row r="202" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
-        <v>23</v>
-      </c>
-      <c r="C202" s="2">
-        <v>0</v>
-      </c>
-      <c r="D202" s="2">
-        <v>0</v>
-      </c>
-      <c r="H202" s="2">
-        <v>1</v>
-      </c>
-      <c r="I202" s="2">
-        <v>0</v>
-      </c>
-      <c r="J202" s="2">
-        <v>24</v>
-      </c>
-      <c r="L202" s="2" t="s">
-        <v>38</v>
+    <row r="202" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>22</v>
+      </c>
+      <c r="C202" s="3">
+        <v>2</v>
+      </c>
+      <c r="D202" s="3">
+        <v>2</v>
+      </c>
+      <c r="H202" s="3">
+        <v>1</v>
+      </c>
+      <c r="I202" s="3">
+        <v>1</v>
+      </c>
+      <c r="L202" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="203" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5074,7 +5051,7 @@
         <v>23</v>
       </c>
       <c r="C203" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D203" s="2">
         <v>0</v>
@@ -5084,6 +5061,9 @@
       </c>
       <c r="I203" s="2">
         <v>0</v>
+      </c>
+      <c r="J203" s="2">
+        <v>24</v>
       </c>
       <c r="L203" s="2" t="s">
         <v>38</v>
@@ -5094,7 +5074,7 @@
         <v>23</v>
       </c>
       <c r="C204" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204" s="2">
         <v>0</v>
@@ -5114,16 +5094,16 @@
         <v>23</v>
       </c>
       <c r="C205" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D205" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205" s="2">
         <v>1</v>
       </c>
       <c r="I205" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L205" s="2" t="s">
         <v>38</v>
@@ -5134,7 +5114,7 @@
         <v>23</v>
       </c>
       <c r="C206" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D206" s="2">
         <v>1</v>
@@ -5154,7 +5134,7 @@
         <v>23</v>
       </c>
       <c r="C207" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207" s="2">
         <v>1</v>
@@ -5174,10 +5154,10 @@
         <v>23</v>
       </c>
       <c r="C208" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D208" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H208" s="2">
         <v>1</v>
@@ -5194,7 +5174,7 @@
         <v>23</v>
       </c>
       <c r="C209" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209" s="2">
         <v>2</v>
@@ -5214,7 +5194,7 @@
         <v>23</v>
       </c>
       <c r="C210" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210" s="2">
         <v>2</v>
@@ -5229,27 +5209,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="211" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="3">
-        <v>24</v>
-      </c>
-      <c r="C211" s="3">
-        <v>0</v>
-      </c>
-      <c r="D211" s="3">
-        <v>0</v>
-      </c>
-      <c r="H211" s="3">
-        <v>1</v>
-      </c>
-      <c r="I211" s="3">
-        <v>0</v>
-      </c>
-      <c r="J211" s="3">
-        <v>25</v>
-      </c>
-      <c r="L211" s="3" t="s">
-        <v>39</v>
+    <row r="211" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>23</v>
+      </c>
+      <c r="C211" s="2">
+        <v>2</v>
+      </c>
+      <c r="D211" s="2">
+        <v>2</v>
+      </c>
+      <c r="H211" s="2">
+        <v>1</v>
+      </c>
+      <c r="I211" s="2">
+        <v>1</v>
+      </c>
+      <c r="L211" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="212" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5257,7 +5234,7 @@
         <v>24</v>
       </c>
       <c r="C212" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D212" s="3">
         <v>0</v>
@@ -5267,6 +5244,9 @@
       </c>
       <c r="I212" s="3">
         <v>0</v>
+      </c>
+      <c r="J212" s="3">
+        <v>25</v>
       </c>
       <c r="L212" s="3" t="s">
         <v>39</v>
@@ -5277,7 +5257,7 @@
         <v>24</v>
       </c>
       <c r="C213" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213" s="3">
         <v>0</v>
@@ -5297,16 +5277,16 @@
         <v>24</v>
       </c>
       <c r="C214" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D214" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214" s="3">
         <v>1</v>
       </c>
       <c r="I214" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L214" s="3" t="s">
         <v>39</v>
@@ -5317,7 +5297,7 @@
         <v>24</v>
       </c>
       <c r="C215" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D215" s="3">
         <v>1</v>
@@ -5337,7 +5317,7 @@
         <v>24</v>
       </c>
       <c r="C216" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216" s="3">
         <v>1</v>
@@ -5357,10 +5337,10 @@
         <v>24</v>
       </c>
       <c r="C217" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D217" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217" s="3">
         <v>1</v>
@@ -5377,7 +5357,7 @@
         <v>24</v>
       </c>
       <c r="C218" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D218" s="3">
         <v>2</v>
@@ -5397,7 +5377,7 @@
         <v>24</v>
       </c>
       <c r="C219" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219" s="3">
         <v>2</v>
@@ -5412,27 +5392,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="220" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
-        <v>25</v>
-      </c>
-      <c r="C220" s="2">
-        <v>0</v>
-      </c>
-      <c r="D220" s="2">
-        <v>0</v>
-      </c>
-      <c r="H220" s="2">
-        <v>1</v>
-      </c>
-      <c r="I220" s="2">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2">
-        <v>26</v>
-      </c>
-      <c r="L220" s="2" t="s">
-        <v>40</v>
+    <row r="220" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>24</v>
+      </c>
+      <c r="C220" s="3">
+        <v>2</v>
+      </c>
+      <c r="D220" s="3">
+        <v>2</v>
+      </c>
+      <c r="H220" s="3">
+        <v>1</v>
+      </c>
+      <c r="I220" s="3">
+        <v>1</v>
+      </c>
+      <c r="L220" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="221" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5440,7 +5417,7 @@
         <v>25</v>
       </c>
       <c r="C221" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D221" s="2">
         <v>0</v>
@@ -5450,6 +5427,9 @@
       </c>
       <c r="I221" s="2">
         <v>0</v>
+      </c>
+      <c r="J221" s="2">
+        <v>26</v>
       </c>
       <c r="L221" s="2" t="s">
         <v>40</v>
@@ -5460,7 +5440,7 @@
         <v>25</v>
       </c>
       <c r="C222" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D222" s="2">
         <v>0</v>
@@ -5480,16 +5460,16 @@
         <v>25</v>
       </c>
       <c r="C223" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D223" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223" s="2">
         <v>1</v>
       </c>
       <c r="I223" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L223" s="2" t="s">
         <v>40</v>
@@ -5500,7 +5480,7 @@
         <v>25</v>
       </c>
       <c r="C224" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D224" s="2">
         <v>1</v>
@@ -5520,7 +5500,7 @@
         <v>25</v>
       </c>
       <c r="C225" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225" s="2">
         <v>1</v>
@@ -5540,10 +5520,10 @@
         <v>25</v>
       </c>
       <c r="C226" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D226" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H226" s="2">
         <v>1</v>
@@ -5560,7 +5540,7 @@
         <v>25</v>
       </c>
       <c r="C227" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D227" s="2">
         <v>2</v>
@@ -5580,7 +5560,7 @@
         <v>25</v>
       </c>
       <c r="C228" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228" s="2">
         <v>2</v>
@@ -5595,24 +5575,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="229" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="3">
-        <v>26</v>
-      </c>
-      <c r="C229" s="3">
-        <v>0</v>
-      </c>
-      <c r="D229" s="3">
-        <v>0</v>
-      </c>
-      <c r="H229" s="3">
-        <v>1</v>
-      </c>
-      <c r="I229" s="3">
-        <v>0</v>
-      </c>
-      <c r="L229" s="3" t="s">
-        <v>41</v>
+    <row r="229" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>25</v>
+      </c>
+      <c r="C229" s="2">
+        <v>2</v>
+      </c>
+      <c r="D229" s="2">
+        <v>2</v>
+      </c>
+      <c r="H229" s="2">
+        <v>1</v>
+      </c>
+      <c r="I229" s="2">
+        <v>1</v>
+      </c>
+      <c r="L229" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="230" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5620,7 +5600,7 @@
         <v>26</v>
       </c>
       <c r="C230" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D230" s="3">
         <v>0</v>
@@ -5640,7 +5620,7 @@
         <v>26</v>
       </c>
       <c r="C231" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D231" s="3">
         <v>0</v>
@@ -5660,16 +5640,16 @@
         <v>26</v>
       </c>
       <c r="C232" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D232" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232" s="3">
         <v>1</v>
       </c>
       <c r="I232" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L232" s="3" t="s">
         <v>41</v>
@@ -5680,7 +5660,7 @@
         <v>26</v>
       </c>
       <c r="C233" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D233" s="3">
         <v>1</v>
@@ -5700,7 +5680,7 @@
         <v>26</v>
       </c>
       <c r="C234" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D234" s="3">
         <v>1</v>
@@ -5720,10 +5700,10 @@
         <v>26</v>
       </c>
       <c r="C235" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D235" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H235" s="3">
         <v>1</v>
@@ -5740,7 +5720,7 @@
         <v>26</v>
       </c>
       <c r="C236" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236" s="3">
         <v>2</v>
@@ -5760,7 +5740,7 @@
         <v>26</v>
       </c>
       <c r="C237" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D237" s="3">
         <v>2</v>
@@ -5772,6 +5752,26 @@
         <v>1</v>
       </c>
       <c r="L237" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <v>26</v>
+      </c>
+      <c r="C238" s="3">
+        <v>2</v>
+      </c>
+      <c r="D238" s="3">
+        <v>2</v>
+      </c>
+      <c r="H238" s="3">
+        <v>1</v>
+      </c>
+      <c r="I238" s="3">
+        <v>1</v>
+      </c>
+      <c r="L238" s="3" t="s">
         <v>41</v>
       </c>
     </row>
